--- a/TOPSIS.xlsx
+++ b/TOPSIS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="66">
   <si>
     <t>Концепции</t>
   </si>
@@ -207,6 +207,21 @@
   </si>
   <si>
     <t>Наибольшую близость к идеальному решению и 1 приоритет имеет проект B -  Мобильное приложение для планирования личного бюджета</t>
+  </si>
+  <si>
+    <t>2 (1, 2, 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расстояние </t>
+  </si>
+  <si>
+    <t>Агреграция значений и добавление весов</t>
+  </si>
+  <si>
+    <t>Нормализация</t>
+  </si>
+  <si>
+    <t>Нахождение идеальных решений</t>
   </si>
 </sst>
 </file>
@@ -230,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,27 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -543,6 +543,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -558,6 +581,191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17124</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>128427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>547463</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>177490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6678203" y="20719551"/>
+          <a:ext cx="3244429" cy="228860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>40161</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4249270" cy="1726545"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792636" y="15791149"/>
+          <a:ext cx="4249270" cy="1726545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3585882" cy="1781770"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12783670" y="18002395"/>
+          <a:ext cx="3585882" cy="1781770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>35860</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>43936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>68230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12810566" y="19147724"/>
+          <a:ext cx="2151529" cy="400812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>61490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>59595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792636" y="20079678"/>
+          <a:ext cx="3415554" cy="1073870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P115" sqref="P115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,6 +1252,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
@@ -1290,170 +1503,170 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27" t="s">
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27" t="s">
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27" t="s">
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="29" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="29" t="s">
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="29" t="s">
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="29" t="s">
+      <c r="L39" s="47"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O39" s="30"/>
-      <c r="P39" s="31"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="48"/>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="29" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="29" t="s">
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="29" t="s">
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="29" t="s">
+      <c r="L40" s="47"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="30"/>
-      <c r="P40" s="31"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="48"/>
     </row>
     <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="29" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="29" t="s">
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="29" t="s">
+      <c r="I41" s="47"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="29" t="s">
+      <c r="L41" s="47"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O41" s="30"/>
-      <c r="P41" s="31"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="48"/>
     </row>
     <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="29" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="29" t="s">
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="29" t="s">
+      <c r="I42" s="47"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="29" t="s">
+      <c r="L42" s="47"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="30"/>
-      <c r="P42" s="31"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="48"/>
     </row>
     <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
@@ -1673,170 +1886,170 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27" t="s">
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27" t="s">
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27" t="s">
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
     </row>
     <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
     </row>
     <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="29" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="29" t="s">
+      <c r="F52" s="47"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="30"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="29" t="s">
+      <c r="I52" s="47"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="30"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="29" t="s">
+      <c r="L52" s="47"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="O52" s="30"/>
-      <c r="P52" s="31"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="48"/>
     </row>
     <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="29" t="s">
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="29" t="s">
+      <c r="F53" s="47"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="29" t="s">
+      <c r="I53" s="47"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="30"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="29" t="s">
+      <c r="L53" s="47"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="30"/>
-      <c r="P53" s="31"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="48"/>
     </row>
     <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="29" t="s">
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="29" t="s">
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="30"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="29" t="s">
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L54" s="30"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="29" t="s">
+      <c r="L54" s="47"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O54" s="30"/>
-      <c r="P54" s="31"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="48"/>
     </row>
     <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="29" t="s">
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="29" t="s">
+      <c r="F55" s="47"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="30"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="29" t="s">
+      <c r="I55" s="47"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L55" s="30"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="29" t="s">
+      <c r="L55" s="47"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="O55" s="30"/>
-      <c r="P55" s="31"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="48"/>
     </row>
     <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="11"/>
@@ -2056,172 +2269,172 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27" t="s">
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27" t="s">
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27" t="s">
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27" t="s">
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
     </row>
     <row r="64" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-    </row>
-    <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+    </row>
+    <row r="65" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="29" t="s">
+      <c r="C65" s="47"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="29" t="s">
+      <c r="F65" s="47"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="30"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="29" t="s">
+      <c r="I65" s="47"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L65" s="30"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="29" t="s">
+      <c r="L65" s="47"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="O65" s="30"/>
-      <c r="P65" s="31"/>
-    </row>
-    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O65" s="47"/>
+      <c r="P65" s="48"/>
+    </row>
+    <row r="66" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="29" t="s">
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="30"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="29" t="s">
+      <c r="F66" s="47"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="30"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="29" t="s">
+      <c r="I66" s="47"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="30"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="29" t="s">
+      <c r="L66" s="47"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="O66" s="30"/>
-      <c r="P66" s="31"/>
-    </row>
-    <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O66" s="47"/>
+      <c r="P66" s="48"/>
+    </row>
+    <row r="67" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="29" t="s">
+      <c r="C67" s="47"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="30"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="29" t="s">
+      <c r="F67" s="47"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="30"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="29" t="s">
+      <c r="I67" s="47"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L67" s="30"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="29" t="s">
+      <c r="L67" s="47"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O67" s="30"/>
-      <c r="P67" s="31"/>
-    </row>
-    <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O67" s="47"/>
+      <c r="P67" s="48"/>
+    </row>
+    <row r="68" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="29" t="s">
+      <c r="C68" s="47"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="30"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="29" t="s">
+      <c r="F68" s="47"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="30"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="29" t="s">
+      <c r="I68" s="47"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L68" s="30"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="29" t="s">
+      <c r="L68" s="47"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O68" s="30"/>
-      <c r="P68" s="31"/>
-    </row>
-    <row r="69" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O68" s="47"/>
+      <c r="P68" s="48"/>
+    </row>
+    <row r="69" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -2238,7 +2451,7 @@
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
     </row>
-    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2288,7 +2501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2338,7 +2551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2388,7 +2601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2438,109 +2651,109 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="23"/>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27" t="s">
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27" t="s">
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27" t="s">
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27" t="s">
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-    </row>
-    <row r="78" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+    </row>
+    <row r="78" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="34">
-        <v>3</v>
-      </c>
-      <c r="C78" s="35">
+      <c r="B78" s="27">
+        <v>3</v>
+      </c>
+      <c r="C78" s="28">
         <v>5</v>
       </c>
-      <c r="D78" s="36">
-        <v>7</v>
-      </c>
-      <c r="E78" s="37">
-        <v>7</v>
-      </c>
-      <c r="F78" s="38">
-        <v>8</v>
-      </c>
-      <c r="G78" s="39">
-        <v>9</v>
-      </c>
-      <c r="H78" s="37">
-        <v>7</v>
-      </c>
-      <c r="I78" s="38">
-        <v>8</v>
-      </c>
-      <c r="J78" s="39">
-        <v>9</v>
-      </c>
-      <c r="K78" s="34">
-        <v>3</v>
-      </c>
-      <c r="L78" s="35">
+      <c r="D78" s="29">
+        <v>7</v>
+      </c>
+      <c r="E78" s="30">
+        <v>7</v>
+      </c>
+      <c r="F78" s="31">
+        <v>8</v>
+      </c>
+      <c r="G78" s="32">
+        <v>9</v>
+      </c>
+      <c r="H78" s="30">
+        <v>7</v>
+      </c>
+      <c r="I78" s="31">
+        <v>8</v>
+      </c>
+      <c r="J78" s="32">
+        <v>9</v>
+      </c>
+      <c r="K78" s="27">
+        <v>3</v>
+      </c>
+      <c r="L78" s="28">
         <v>5</v>
       </c>
-      <c r="M78" s="36">
-        <v>7</v>
-      </c>
-      <c r="N78" s="37">
-        <v>7</v>
-      </c>
-      <c r="O78" s="38">
-        <v>8</v>
-      </c>
-      <c r="P78" s="39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="33" t="s">
+      <c r="M78" s="29">
+        <v>7</v>
+      </c>
+      <c r="N78" s="30">
+        <v>7</v>
+      </c>
+      <c r="O78" s="31">
+        <v>8</v>
+      </c>
+      <c r="P78" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="33"/>
-    </row>
-    <row r="80" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="45"/>
+    </row>
+    <row r="80" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2604,8 +2817,15 @@
         <f>MAX($P44,$P57,$P70)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R80" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="S80" s="50"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="50"/>
+      <c r="V80" s="50"/>
+    </row>
+    <row r="81" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2670,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +2955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2800,131 +3020,131 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="24"/>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27" t="s">
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27" t="s">
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27" t="s">
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27" t="s">
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-    </row>
-    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="27" t="s">
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+    </row>
+    <row r="87" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27" t="s">
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27" t="s">
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27" t="s">
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27" t="s">
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-    </row>
-    <row r="88" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+    </row>
+    <row r="88" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B88" s="34">
-        <v>3</v>
-      </c>
-      <c r="C88" s="35">
+      <c r="B88" s="27">
+        <v>3</v>
+      </c>
+      <c r="C88" s="28">
         <v>5</v>
       </c>
-      <c r="D88" s="36">
-        <v>7</v>
-      </c>
-      <c r="E88" s="37">
-        <v>7</v>
-      </c>
-      <c r="F88" s="38">
-        <v>8</v>
-      </c>
-      <c r="G88" s="39">
-        <v>9</v>
-      </c>
-      <c r="H88" s="37">
-        <v>7</v>
-      </c>
-      <c r="I88" s="38">
-        <v>8</v>
-      </c>
-      <c r="J88" s="39">
-        <v>9</v>
-      </c>
-      <c r="K88" s="34">
-        <v>3</v>
-      </c>
-      <c r="L88" s="35">
+      <c r="D88" s="29">
+        <v>7</v>
+      </c>
+      <c r="E88" s="30">
+        <v>7</v>
+      </c>
+      <c r="F88" s="31">
+        <v>8</v>
+      </c>
+      <c r="G88" s="32">
+        <v>9</v>
+      </c>
+      <c r="H88" s="30">
+        <v>7</v>
+      </c>
+      <c r="I88" s="31">
+        <v>8</v>
+      </c>
+      <c r="J88" s="32">
+        <v>9</v>
+      </c>
+      <c r="K88" s="27">
+        <v>3</v>
+      </c>
+      <c r="L88" s="28">
         <v>5</v>
       </c>
-      <c r="M88" s="36">
-        <v>7</v>
-      </c>
-      <c r="N88" s="37">
-        <v>7</v>
-      </c>
-      <c r="O88" s="38">
-        <v>8</v>
-      </c>
-      <c r="P88" s="39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="28" t="s">
+      <c r="M88" s="29">
+        <v>7</v>
+      </c>
+      <c r="N88" s="30">
+        <v>7</v>
+      </c>
+      <c r="O88" s="31">
+        <v>8</v>
+      </c>
+      <c r="P88" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="28"/>
-      <c r="P89" s="28"/>
-    </row>
-    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+    </row>
+    <row r="90" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2989,7 +3209,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="N91" s="15">
-        <f t="shared" ref="N90:O93" si="2">MIN($N$80:$N$83)/$P81</f>
+        <f t="shared" ref="N91:N93" si="2">MIN($N$80:$N$83)/$P81</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="O91" s="16">
@@ -3054,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3118,8 +3338,12 @@
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R92" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="S92" s="50"/>
+    </row>
+    <row r="93" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3184,137 +3408,137 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="24"/>
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27" t="s">
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27" t="s">
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27" t="s">
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27" t="s">
+      <c r="L97" s="44"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O97" s="27"/>
-      <c r="P97" s="27"/>
-    </row>
-    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="27" t="s">
+      <c r="O97" s="44"/>
+      <c r="P97" s="44"/>
+    </row>
+    <row r="98" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27" t="s">
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27" t="s">
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27" t="s">
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27" t="s">
+      <c r="L98" s="44"/>
+      <c r="M98" s="44"/>
+      <c r="N98" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O98" s="27"/>
-      <c r="P98" s="27"/>
-    </row>
-    <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O98" s="44"/>
+      <c r="P98" s="44"/>
+    </row>
+    <row r="99" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="34">
-        <v>3</v>
-      </c>
-      <c r="C99" s="35">
+      <c r="B99" s="27">
+        <v>3</v>
+      </c>
+      <c r="C99" s="28">
         <v>5</v>
       </c>
-      <c r="D99" s="36">
-        <v>7</v>
-      </c>
-      <c r="E99" s="37">
-        <v>7</v>
-      </c>
-      <c r="F99" s="38">
-        <v>8</v>
-      </c>
-      <c r="G99" s="39">
-        <v>9</v>
-      </c>
-      <c r="H99" s="37">
-        <v>7</v>
-      </c>
-      <c r="I99" s="38">
-        <v>8</v>
-      </c>
-      <c r="J99" s="39">
-        <v>9</v>
-      </c>
-      <c r="K99" s="34">
-        <v>3</v>
-      </c>
-      <c r="L99" s="35">
+      <c r="D99" s="29">
+        <v>7</v>
+      </c>
+      <c r="E99" s="30">
+        <v>7</v>
+      </c>
+      <c r="F99" s="31">
+        <v>8</v>
+      </c>
+      <c r="G99" s="32">
+        <v>9</v>
+      </c>
+      <c r="H99" s="30">
+        <v>7</v>
+      </c>
+      <c r="I99" s="31">
+        <v>8</v>
+      </c>
+      <c r="J99" s="32">
+        <v>9</v>
+      </c>
+      <c r="K99" s="27">
+        <v>3</v>
+      </c>
+      <c r="L99" s="28">
         <v>5</v>
       </c>
-      <c r="M99" s="36">
-        <v>7</v>
-      </c>
-      <c r="N99" s="37">
-        <v>7</v>
-      </c>
-      <c r="O99" s="38">
-        <v>8</v>
-      </c>
-      <c r="P99" s="39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="28" t="s">
+      <c r="M99" s="29">
+        <v>7</v>
+      </c>
+      <c r="N99" s="30">
+        <v>7</v>
+      </c>
+      <c r="O99" s="31">
+        <v>8</v>
+      </c>
+      <c r="P99" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="28"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28"/>
-    </row>
-    <row r="101" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+    </row>
+    <row r="101" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -3379,7 +3603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3444,7 +3668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3509,7 +3733,7 @@
         <v>1.2857142857142856</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -3573,154 +3797,167 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R104" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S104" s="50"/>
+      <c r="T104" s="50"/>
+      <c r="U104" s="50"/>
+      <c r="V104" s="50"/>
+    </row>
+    <row r="105" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="40">
+      <c r="B105" s="33">
         <f>MAX(B$101:B$104)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C105" s="41">
+      <c r="C105" s="34">
         <f t="shared" ref="C105:P105" si="20">MAX(C$101:C$104)</f>
         <v>1</v>
       </c>
-      <c r="D105" s="42">
+      <c r="D105" s="35">
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="E105" s="40">
+      <c r="E105" s="33">
         <f t="shared" si="20"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="F105" s="41">
+      <c r="F105" s="34">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G105" s="42">
+      <c r="G105" s="35">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="H105" s="40">
+      <c r="H105" s="33">
         <f t="shared" si="20"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="I105" s="41">
+      <c r="I105" s="34">
         <f t="shared" si="20"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="J105" s="42">
+      <c r="J105" s="35">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="K105" s="40">
+      <c r="K105" s="33">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="L105" s="41">
+      <c r="L105" s="34">
         <f t="shared" si="20"/>
         <v>3.7037037037037042</v>
       </c>
-      <c r="M105" s="42">
+      <c r="M105" s="35">
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="N105" s="40">
+      <c r="N105" s="33">
         <f t="shared" si="20"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="O105" s="41">
+      <c r="O105" s="34">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="P105" s="42">
+      <c r="P105" s="35">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B106" s="40">
+      <c r="B106" s="33">
         <f>MIN(B101:B105)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C106" s="41">
+      <c r="C106" s="34">
         <f t="shared" ref="C106:P106" si="21">MIN(C101:C105)</f>
         <v>0.625</v>
       </c>
-      <c r="D106" s="42">
+      <c r="D106" s="35">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="E106" s="40">
+      <c r="E106" s="33">
         <f t="shared" si="21"/>
         <v>0.77777777777777768</v>
       </c>
-      <c r="F106" s="41">
+      <c r="F106" s="34">
         <f t="shared" si="21"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G106" s="42">
+      <c r="G106" s="35">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="H106" s="40">
+      <c r="H106" s="33">
         <f t="shared" si="21"/>
         <v>0.77777777777777768</v>
       </c>
-      <c r="I106" s="41">
+      <c r="I106" s="34">
         <f t="shared" si="21"/>
         <v>2.3703703703703702</v>
       </c>
-      <c r="J106" s="42">
+      <c r="J106" s="35">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="K106" s="40">
+      <c r="K106" s="33">
         <f t="shared" si="21"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L106" s="41">
+      <c r="L106" s="34">
         <f t="shared" si="21"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="M106" s="42">
+      <c r="M106" s="35">
         <f t="shared" si="21"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="N106" s="40">
+      <c r="N106" s="33">
         <f t="shared" si="21"/>
         <v>0.77777777777777768</v>
       </c>
-      <c r="O106" s="41">
+      <c r="O106" s="34">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="P106" s="42">
+      <c r="P106" s="35">
         <f t="shared" si="21"/>
         <v>1.2857142857142856</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="6"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R109" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="S109" s="50"/>
+      <c r="T109" s="50"/>
+      <c r="U109" s="50"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
         <v>52</v>
       </c>
@@ -3728,138 +3965,141 @@
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B112" s="44">
-        <v>1</v>
-      </c>
-      <c r="C112" s="44">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B112" s="37">
+        <v>1</v>
+      </c>
+      <c r="C112" s="37">
         <v>2</v>
       </c>
-      <c r="D112" s="44">
-        <v>3</v>
-      </c>
-      <c r="E112" s="44">
+      <c r="D112" s="37">
+        <v>3</v>
+      </c>
+      <c r="E112" s="37">
         <v>4</v>
       </c>
-      <c r="F112" s="44">
+      <c r="F112" s="37">
         <v>5</v>
       </c>
-      <c r="G112" s="47" t="s">
+      <c r="G112" s="40" t="s">
         <v>57</v>
       </c>
+      <c r="I112" s="50" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="44" t="s">
+      <c r="A113" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="44">
+      <c r="B113" s="37">
         <f>SQRT((1/3)*((($B101-$B$105)^2)+(($C101-$C$105)^2)+(($D101-$D$105)^2)))</f>
         <v>3.4708608442287052</v>
       </c>
-      <c r="C113" s="44">
+      <c r="C113" s="37">
         <f>SQRT((1/3)*((($E101-$E$105)^2)+(($F101-$F$105)^2)+(($G101-$G$105)^2)))</f>
         <v>3.8957611236458383</v>
       </c>
-      <c r="D113" s="44">
+      <c r="D113" s="37">
         <f>SQRT((1/3)*((($H101-$H$105)^2)+(($I101-$I$105)^2)+(($J101-$J$105)^2)))</f>
         <v>0</v>
       </c>
-      <c r="E113" s="44">
+      <c r="E113" s="37">
         <f>SQRT((1/3)*((($K101-$K$105)^2)+(($L101-$L$105)^2)+(($M101-$M$105)^2)))</f>
         <v>1.5290211924762882</v>
       </c>
-      <c r="F113" s="44">
+      <c r="F113" s="37">
         <f>SQRT((1/3)*((($N101-$N$105)^2)+(($O101-$O$105)^2)+(($P101-$P$105)^2)))</f>
         <v>3.8957611236458383</v>
       </c>
-      <c r="G113" s="44">
+      <c r="G113" s="37">
         <f>SUM(B113:F113)</f>
         <v>12.79140428399667</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="44">
+      <c r="A114" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="37">
         <f t="shared" ref="B114:B116" si="22">SQRT((1/3)*((($B102-$B$105)^2)+(($C102-$C$105)^2)+(($D102-$D$105)^2)))</f>
         <v>0</v>
       </c>
-      <c r="C114" s="44">
+      <c r="C114" s="37">
         <f t="shared" ref="C114:C116" si="23">SQRT((1/3)*((($E102-$E$105)^2)+(($F102-$F$105)^2)+(($G102-$G$105)^2)))</f>
         <v>0</v>
       </c>
-      <c r="D114" s="44">
+      <c r="D114" s="37">
         <f t="shared" ref="D114:D116" si="24">SQRT((1/3)*((($H102-$H$105)^2)+(($I102-$I$105)^2)+(($J102-$J$105)^2)))</f>
         <v>1.0343881513902917</v>
       </c>
-      <c r="E114" s="44">
+      <c r="E114" s="37">
         <f t="shared" ref="E114:E116" si="25">SQRT((1/3)*((($K102-$K$105)^2)+(($L102-$L$105)^2)+(($M102-$M$105)^2)))</f>
         <v>0</v>
       </c>
-      <c r="F114" s="44">
+      <c r="F114" s="37">
         <f t="shared" ref="F114:F116" si="26">SQRT((1/3)*((($N102-$N$105)^2)+(($O102-$O$105)^2)+(($P102-$P$105)^2)))</f>
         <v>0</v>
       </c>
-      <c r="G114" s="44">
+      <c r="G114" s="37">
         <f t="shared" ref="G114:G116" si="27">SUM(B114:F114)</f>
         <v>1.0343881513902917</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="44">
+      <c r="A115" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="C115" s="44">
+      <c r="C115" s="37">
         <f t="shared" si="23"/>
         <v>3.9405168185802819</v>
       </c>
-      <c r="D115" s="44">
+      <c r="D115" s="37">
         <f t="shared" si="24"/>
         <v>2.1237438795305854</v>
       </c>
-      <c r="E115" s="44">
+      <c r="E115" s="37">
         <f t="shared" si="25"/>
         <v>1.5290211924762882</v>
       </c>
-      <c r="F115" s="44">
+      <c r="F115" s="37">
         <f t="shared" si="26"/>
         <v>4.862439619781151</v>
       </c>
-      <c r="G115" s="44">
+      <c r="G115" s="37">
         <f t="shared" si="27"/>
         <v>12.455721510368306</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="44">
+      <c r="A116" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="37">
         <f t="shared" si="22"/>
         <v>3.4708608442287052</v>
       </c>
-      <c r="C116" s="44">
+      <c r="C116" s="37">
         <f t="shared" si="23"/>
         <v>3.9405168185802819</v>
       </c>
-      <c r="D116" s="44">
+      <c r="D116" s="37">
         <f t="shared" si="24"/>
         <v>2.2508444790278168</v>
       </c>
-      <c r="E116" s="44">
+      <c r="E116" s="37">
         <f t="shared" si="25"/>
         <v>3.1061100309652163</v>
       </c>
-      <c r="F116" s="44">
+      <c r="F116" s="37">
         <f t="shared" si="26"/>
         <v>3.8957611236458383</v>
       </c>
-      <c r="G116" s="44">
+      <c r="G116" s="37">
         <f t="shared" si="27"/>
         <v>16.664093296447856</v>
       </c>
@@ -3873,137 +4113,137 @@
       <c r="D118" s="22"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B119" s="44">
-        <v>1</v>
-      </c>
-      <c r="C119" s="44">
+      <c r="B119" s="37">
+        <v>1</v>
+      </c>
+      <c r="C119" s="37">
         <v>2</v>
       </c>
-      <c r="D119" s="44">
-        <v>3</v>
-      </c>
-      <c r="E119" s="44">
+      <c r="D119" s="37">
+        <v>3</v>
+      </c>
+      <c r="E119" s="37">
         <v>4</v>
       </c>
-      <c r="F119" s="44">
+      <c r="F119" s="37">
         <v>5</v>
       </c>
-      <c r="G119" s="46" t="s">
+      <c r="G119" s="39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="44" t="s">
+      <c r="A120" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="44">
+      <c r="B120" s="37">
         <f>SQRT((1/3)*((($B101-$B$106)^2)+(($C101-$C$106)^2)+(($D101-$D$106)^2)))</f>
         <v>0</v>
       </c>
-      <c r="C120" s="44">
+      <c r="C120" s="37">
         <f>SQRT((1/3)*((($E101-$E$106)^2)+(($F101-$F$106)^2)+(($G101-$G$106)^2)))</f>
         <v>0.10997147984564298</v>
       </c>
-      <c r="D120" s="44">
+      <c r="D120" s="37">
         <f>SQRT((1/3)*((($H101-$H$106)^2)+(($I101-$I$106)^2)+(($J101-$J$106)^2)))</f>
         <v>2.2508444790278168</v>
       </c>
-      <c r="E120" s="44">
+      <c r="E120" s="37">
         <f>SQRT((1/3)*((($K101-$K$106)^2)+(($L101-$L$106)^2)+(($M101-$M$106)^2)))</f>
         <v>1.8246145091486821</v>
       </c>
-      <c r="F120" s="44">
+      <c r="F120" s="37">
         <f>SQRT((1/3)*((($N101-$N$106)^2)+(($O101-$O$106)^2)+(($P101-$P$106)^2)))</f>
         <v>1.0082801563909363</v>
       </c>
-      <c r="G120" s="44">
+      <c r="G120" s="37">
         <f>SUM(B120:F120)</f>
         <v>5.1937106244130788</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="44">
+      <c r="A121" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="37">
         <f t="shared" ref="B121:B123" si="28">SQRT((1/3)*((($B102-$B$106)^2)+(($C102-$C$106)^2)+(($D102-$D$106)^2)))</f>
         <v>3.4708608442287052</v>
       </c>
-      <c r="C121" s="44">
+      <c r="C121" s="37">
         <f t="shared" ref="C121:C123" si="29">SQRT((1/3)*((($E102-$E$106)^2)+(($F102-$F$106)^2)+(($G102-$G$106)^2)))</f>
         <v>3.9405168185802819</v>
       </c>
-      <c r="D121" s="44">
+      <c r="D121" s="37">
         <f t="shared" ref="D121:D123" si="30">SQRT((1/3)*((($H102-$H$106)^2)+(($I102-$I$106)^2)+(($J102-$J$106)^2)))</f>
         <v>1.6635086679211333</v>
       </c>
-      <c r="E121" s="44">
+      <c r="E121" s="37">
         <f t="shared" ref="E121:E123" si="31">SQRT((1/3)*((($K102-$K$106)^2)+(($L102-$L$106)^2)+(($M102-$M$106)^2)))</f>
         <v>3.1061100309652163</v>
       </c>
-      <c r="F121" s="44">
+      <c r="F121" s="37">
         <f t="shared" ref="F121:F123" si="32">SQRT((1/3)*((($N102-$N$106)^2)+(($O102-$O$106)^2)+(($P102-$P$106)^2)))</f>
         <v>4.862439619781151</v>
       </c>
-      <c r="G121" s="44">
+      <c r="G121" s="37">
         <f t="shared" ref="G121:G123" si="33">SUM(B121:F121)</f>
         <v>17.043435981476485</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="44">
+      <c r="A122" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="37">
         <f t="shared" si="28"/>
         <v>3.4708608442287052</v>
       </c>
-      <c r="C122" s="44">
+      <c r="C122" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="D122" s="44">
+      <c r="D122" s="37">
         <f t="shared" si="30"/>
         <v>0.17106674642655578</v>
       </c>
-      <c r="E122" s="44">
+      <c r="E122" s="37">
         <f t="shared" si="31"/>
         <v>1.8246145091486821</v>
       </c>
-      <c r="F122" s="44">
+      <c r="F122" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G122" s="44">
+      <c r="G122" s="37">
         <f t="shared" si="33"/>
         <v>5.4665420998039433</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="44">
+      <c r="A123" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="C123" s="44">
+      <c r="C123" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="D123" s="44">
+      <c r="D123" s="37">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="E123" s="44">
+      <c r="E123" s="37">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F123" s="44">
+      <c r="F123" s="37">
         <f t="shared" si="32"/>
         <v>1.0082801563909363</v>
       </c>
-      <c r="G123" s="44">
+      <c r="G123" s="37">
         <f t="shared" si="33"/>
         <v>1.0082801563909363</v>
       </c>
@@ -4018,10 +4258,10 @@
       <c r="E125" s="22"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="48" t="s">
+      <c r="A126" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B126" s="48" t="s">
+      <c r="B126" s="41" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4033,7 +4273,7 @@
       <c r="B127">
         <v>3</v>
       </c>
-      <c r="C127" s="45" t="s">
+      <c r="C127" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4045,7 +4285,7 @@
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" s="45" t="s">
+      <c r="C128" s="38" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4057,7 +4297,7 @@
       <c r="B129">
         <v>2</v>
       </c>
-      <c r="C129" s="45" t="s">
+      <c r="C129" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4069,12 +4309,12 @@
       <c r="B130">
         <v>4</v>
       </c>
-      <c r="C130" s="45" t="s">
+      <c r="C130" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="36" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4085,6 +4325,10 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
     <mergeCell ref="B100:P100"/>
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="E98:G98"/>
@@ -4096,24 +4340,6 @@
     <mergeCell ref="H97:J97"/>
     <mergeCell ref="K97:M97"/>
     <mergeCell ref="N97:P97"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B38:P38"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
     <mergeCell ref="K42:M42"/>
     <mergeCell ref="N42:P42"/>
     <mergeCell ref="B39:D39"/>
@@ -4124,6 +4350,20 @@
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="K50:M50"/>
     <mergeCell ref="N50:P50"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
     <mergeCell ref="B51:P51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="E52:G52"/>
@@ -4194,5 +4434,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>